--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1321.101739</v>
+        <v>0.025425</v>
       </c>
       <c r="H2">
-        <v>3963.305217000001</v>
+        <v>0.076275</v>
       </c>
       <c r="I2">
-        <v>0.9999859818464328</v>
+        <v>0.5785685028141451</v>
       </c>
       <c r="J2">
-        <v>0.9999859818464328</v>
+        <v>0.578568502814145</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.687688666666667</v>
+        <v>0.016376</v>
       </c>
       <c r="N2">
-        <v>14.063066</v>
+        <v>0.049128</v>
       </c>
       <c r="O2">
-        <v>0.9929463927259303</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P2">
-        <v>0.9929463927259304</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q2">
-        <v>6192.913649423926</v>
+        <v>0.0004163597999999999</v>
       </c>
       <c r="R2">
-        <v>55736.22284481533</v>
+        <v>0.0037472382</v>
       </c>
       <c r="S2">
-        <v>0.9929324734509132</v>
+        <v>0.2845236577202535</v>
       </c>
       <c r="T2">
-        <v>0.9929324734509133</v>
+        <v>0.2845236577202534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1321.101739</v>
+        <v>0.025425</v>
       </c>
       <c r="H3">
-        <v>3963.305217000001</v>
+        <v>0.076275</v>
       </c>
       <c r="I3">
-        <v>0.9999859818464328</v>
+        <v>0.5785685028141451</v>
       </c>
       <c r="J3">
-        <v>0.9999859818464328</v>
+        <v>0.578568502814145</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016376</v>
+        <v>0.016924</v>
       </c>
       <c r="N3">
-        <v>0.049128</v>
+        <v>0.050772</v>
       </c>
       <c r="O3">
-        <v>0.003468764946551448</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P3">
-        <v>0.003468764946551449</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q3">
-        <v>21.634362077864</v>
+        <v>0.0004302926999999999</v>
       </c>
       <c r="R3">
-        <v>194.709258700776</v>
+        <v>0.003872634299999999</v>
       </c>
       <c r="S3">
-        <v>0.003468716320871739</v>
+        <v>0.2940448450938916</v>
       </c>
       <c r="T3">
-        <v>0.00346871632087174</v>
+        <v>0.2940448450938916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1321.101739</v>
+        <v>0.01851966666666667</v>
       </c>
       <c r="H4">
-        <v>3963.305217000001</v>
+        <v>0.055559</v>
       </c>
       <c r="I4">
-        <v>0.9999859818464328</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="J4">
-        <v>0.9999859818464328</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016924</v>
+        <v>0.016376</v>
       </c>
       <c r="N4">
-        <v>0.050772</v>
+        <v>0.049128</v>
       </c>
       <c r="O4">
-        <v>0.003584842327518119</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P4">
-        <v>0.00358484232751812</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q4">
-        <v>22.35832583083601</v>
+        <v>0.0003032780613333333</v>
       </c>
       <c r="R4">
-        <v>201.224932477524</v>
+        <v>0.002729502552</v>
       </c>
       <c r="S4">
-        <v>0.003584792074647858</v>
+        <v>0.2072481140515183</v>
       </c>
       <c r="T4">
-        <v>0.003584792074647859</v>
+        <v>0.2072481140515183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,164 +726,40 @@
         <v>0.055559</v>
       </c>
       <c r="I5">
-        <v>1.401815356715333E-05</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="J5">
-        <v>1.401815356715333E-05</v>
+        <v>0.4214314971858549</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.687688666666667</v>
+        <v>0.016924</v>
       </c>
       <c r="N5">
-        <v>14.063066</v>
+        <v>0.050772</v>
       </c>
       <c r="O5">
-        <v>0.9929463927259303</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P5">
-        <v>0.9929463927259304</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q5">
-        <v>0.08681443154377778</v>
+        <v>0.0003134268386666666</v>
       </c>
       <c r="R5">
-        <v>0.7813298838940002</v>
+        <v>0.002820841548</v>
       </c>
       <c r="S5">
-        <v>1.391927501718303E-05</v>
+        <v>0.2141833831343366</v>
       </c>
       <c r="T5">
-        <v>1.391927501718303E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01851966666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.055559</v>
-      </c>
-      <c r="I6">
-        <v>1.401815356715333E-05</v>
-      </c>
-      <c r="J6">
-        <v>1.401815356715333E-05</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.016376</v>
-      </c>
-      <c r="N6">
-        <v>0.049128</v>
-      </c>
-      <c r="O6">
-        <v>0.003468764946551448</v>
-      </c>
-      <c r="P6">
-        <v>0.003468764946551449</v>
-      </c>
-      <c r="Q6">
-        <v>0.0003032780613333333</v>
-      </c>
-      <c r="R6">
-        <v>0.002729502552</v>
-      </c>
-      <c r="S6">
-        <v>4.862567970911662E-08</v>
-      </c>
-      <c r="T6">
-        <v>4.862567970911664E-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01851966666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.055559</v>
-      </c>
-      <c r="I7">
-        <v>1.401815356715333E-05</v>
-      </c>
-      <c r="J7">
-        <v>1.401815356715333E-05</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.016924</v>
-      </c>
-      <c r="N7">
-        <v>0.050772</v>
-      </c>
-      <c r="O7">
-        <v>0.003584842327518119</v>
-      </c>
-      <c r="P7">
-        <v>0.00358484232751812</v>
-      </c>
-      <c r="Q7">
-        <v>0.0003134268386666667</v>
-      </c>
-      <c r="R7">
-        <v>0.002820841548000001</v>
-      </c>
-      <c r="S7">
-        <v>5.025287026118038E-08</v>
-      </c>
-      <c r="T7">
-        <v>5.025287026118039E-08</v>
+        <v>0.2141833831343366</v>
       </c>
     </row>
   </sheetData>
